--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,6 +310,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1247,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1264,18 +1288,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,6 +1309,165 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1312,27 +1483,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1342,7 +1498,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1370,11 +1525,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1383,10 +1546,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,179 +1558,40 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,13 +1651,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1666,16 +1686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>205011</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1690,8 +1710,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1428750" cy="495300"/>
+          <a:off x="3553275" y="5380264"/>
+          <a:ext cx="1396093" cy="377371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2018,866 +2038,824 @@
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="119" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="120"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25" t="s">
+      <c r="E4" s="121"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="136" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="138"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="107"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="145"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="141" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="99"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="132"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="48"/>
+    </row>
+    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="6" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="132"/>
-    </row>
-    <row r="11" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="48"/>
+    </row>
+    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="103"/>
-    </row>
-    <row r="12" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="134"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="71"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="83"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:19" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="85"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="29"/>
+    </row>
+    <row r="15" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="87"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="138"/>
+      <c r="D15" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="69"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="80"/>
-    </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="129"/>
+      <c r="M16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="100"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="61" t="s">
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="64"/>
-      <c r="M18" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="75"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="77" t="s">
+      <c r="N17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="136"/>
+    </row>
+    <row r="18" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="143"/>
+      <c r="M18" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="143"/>
+      <c r="P18" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="143"/>
+      <c r="S18" s="147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="110" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="73"/>
-      <c r="P19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="73"/>
-      <c r="S19" s="78"/>
-    </row>
-    <row r="20" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="129"/>
-    </row>
-    <row r="22" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="126"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="126"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="125" t="s">
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="R22" s="126"/>
-      <c r="S22" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="147" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="148" t="s">
-        <v>34</v>
+      <c r="B24" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="148" t="s">
-        <v>35</v>
-      </c>
+      <c r="B25" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="64"/>
     </row>
     <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="149" t="s">
-        <v>56</v>
-      </c>
+      <c r="B26" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="83"/>
     </row>
     <row r="27" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="16">
-        <v>0</v>
-      </c>
+      <c r="B27" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="72"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="107"/>
-    </row>
-    <row r="29" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="95"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="74"/>
+    </row>
+    <row r="29" spans="1:19" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="110"/>
-    </row>
-    <row r="30" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="57"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="74"/>
+    </row>
+    <row r="30" spans="1:19" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="99"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="57"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="76"/>
+    </row>
+    <row r="31" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="100"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="79"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="100"/>
-    </row>
-    <row r="33" spans="1:19" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="103"/>
-    </row>
-    <row r="34" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="105"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="59">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B21:S21"/>
-    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B28:G31"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:J23"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="H24:J31"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K27:S30"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="K25:S26"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K24:R24"/>
     <mergeCell ref="F3:Q3"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="R3:S4"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="B17:S17"/>
+    <mergeCell ref="J16:J17"/>
     <mergeCell ref="K9:S9"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:I10"/>
@@ -2888,46 +2866,25 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="K8:S8"/>
     <mergeCell ref="B6:S7"/>
-    <mergeCell ref="K30:S33"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="K28:S29"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:S13"/>
-    <mergeCell ref="D14:S15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B31:G34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B24:J26"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="H27:J34"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:S12"/>
+    <mergeCell ref="D13:S14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="K16:L17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2" right="0.25" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -47,9 +47,6 @@
     <t>Invoice No: {meta:invoice_id}</t>
   </si>
   <si>
-    <t>Service Period: {meta:sd} - {meta:ed}</t>
-  </si>
-  <si>
     <t>Invoice Date: {meta:invoice_date}</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Total Amount after Tax</t>
+  </si>
+  <si>
+    <t>Period: {meta:sd} - {meta:ed}</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -404,19 +404,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1271,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1288,112 +1275,133 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1405,193 +1413,171 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1989,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2038,765 +2024,765 @@
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="42"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="119" t="s">
+      <c r="E4" s="128"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="42"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="49"/>
     </row>
     <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="55"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="67"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="68"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="48"/>
+      <c r="B9" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="55"/>
     </row>
     <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="48"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
     </row>
     <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="134"/>
+      <c r="B11" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="140"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
+      <c r="B12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
     </row>
     <row r="14" spans="1:19" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="27"/>
     </row>
     <row r="15" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="137" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="68" t="s">
+      <c r="B15" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="144"/>
+      <c r="D15" s="143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="69"/>
+      <c r="S15" s="76"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="44" t="s">
+      <c r="I16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="J16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="K16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="128" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="129"/>
-      <c r="M16" s="17" t="s">
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="17" t="s">
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="141" t="s">
         <v>19</v>
-      </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="135" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="42"/>
       <c r="P17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="136"/>
+        <v>15</v>
+      </c>
+      <c r="Q17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="42"/>
+      <c r="S17" s="142"/>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144" t="s">
+      <c r="I18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="145" t="s">
+      <c r="J18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="144" t="s">
+      <c r="K18" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="146" t="s">
+      <c r="L18" s="131"/>
+      <c r="M18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="143"/>
-      <c r="M18" s="144" t="s">
+      <c r="N18" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="146" t="s">
+      <c r="O18" s="131"/>
+      <c r="P18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="143"/>
-      <c r="P18" s="144" t="s">
+      <c r="Q18" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="146" t="s">
+      <c r="R18" s="131"/>
+      <c r="S18" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="R18" s="143"/>
-      <c r="S18" s="147" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="B19" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="34" t="s">
+      <c r="L19" s="37"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="34" t="s">
+      <c r="O19" s="37"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="34" t="s">
+      <c r="R19" s="37"/>
+      <c r="S19" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
       <c r="S20" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
       <c r="S21" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
       <c r="S22" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
       <c r="S23" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
       <c r="S24" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="64"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="71"/>
     </row>
     <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="83"/>
+      <c r="B26" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="92"/>
     </row>
     <row r="27" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="72"/>
+      <c r="B27" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="81"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="74"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="83"/>
     </row>
     <row r="29" spans="1:19" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="74"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="83"/>
     </row>
     <row r="30" spans="1:19" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="76"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="85"/>
     </row>
     <row r="31" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="79"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="88"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -2835,6 +2821,8 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="B28:G31"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B24:G24"/>
@@ -2868,8 +2856,6 @@
     <mergeCell ref="B6:S7"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="N19:O19"/>

--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -165,12 +165,6 @@
     <t>For Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
   <si>
-    <t>Bank Acc: 102405500277</t>
-  </si>
-  <si>
-    <t>Bank IFSC: ICIC0001024</t>
-  </si>
-  <si>
     <t>Authorised signatory</t>
   </si>
   <si>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>Period: {meta:sd} - {meta:ed}</t>
+  </si>
+  <si>
+    <t>Acc No: 102405500277</t>
+  </si>
+  <si>
+    <t>IFSC: ICIC0001024</t>
   </si>
 </sst>
 </file>
@@ -1317,73 +1317,170 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,10 +1491,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1409,7 +1502,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1417,7 +1509,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1429,156 +1520,65 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:S9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2024,361 +2024,361 @@
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="104"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="49"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="106"/>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="77" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="49"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="106"/>
     </row>
     <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="116"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="71"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="86"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="125"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="68"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="121"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="55"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="110"/>
     </row>
     <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="110"/>
     </row>
     <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="140"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
+      <c r="B12" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="134"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
+      <c r="B13" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="140"/>
+      <c r="D13" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="136"/>
     </row>
     <row r="14" spans="1:19" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="138"/>
     </row>
     <row r="15" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="143" t="s">
+      <c r="B15" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="75" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="75" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15" s="126"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="51" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="33"/>
+      <c r="L16" s="144"/>
       <c r="M16" s="38" t="s">
         <v>17</v>
       </c>
@@ -2389,49 +2389,49 @@
       </c>
       <c r="Q16" s="39"/>
       <c r="R16" s="40"/>
-      <c r="S16" s="141" t="s">
+      <c r="S16" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
       <c r="M17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="41" t="s">
+      <c r="N17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="42"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="41" t="s">
+      <c r="Q17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="42"/>
-      <c r="S17" s="142"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="17" t="s">
         <v>22</v>
       </c>
@@ -2441,348 +2441,348 @@
       <c r="J18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="146" t="s">
+      <c r="K18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="131"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="146" t="s">
+      <c r="N18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="131"/>
+      <c r="O18" s="24"/>
       <c r="P18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="146" t="s">
+      <c r="Q18" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="131"/>
+      <c r="R18" s="24"/>
       <c r="S18" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="121"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="37"/>
+      <c r="L19" s="130"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="37"/>
+      <c r="O19" s="130"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="36" t="s">
+      <c r="Q19" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="37"/>
+      <c r="R19" s="130"/>
       <c r="S19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="93" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
       <c r="S20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="96" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="96" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="101"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
       <c r="S23" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="102" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
       <c r="S24" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="89" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="71"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="86"/>
     </row>
     <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="92"/>
+      <c r="B26" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="89"/>
     </row>
     <row r="27" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="81"/>
+      <c r="B27" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="78"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="83"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="79"/>
     </row>
     <row r="29" spans="1:19" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="83"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="79"/>
     </row>
     <row r="30" spans="1:19" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="85"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="82"/>
     </row>
     <row r="31" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="88"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="84"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -2807,6 +2807,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:S12"/>
+    <mergeCell ref="D13:S14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="K27:S30"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="K25:S26"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="B28:G31"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:J23"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="H24:J31"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B16:G17"/>
@@ -2823,49 +2866,6 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B28:G31"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:J23"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="H24:J31"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K27:S30"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="K25:S26"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K8:S8"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:S12"/>
-    <mergeCell ref="D13:S14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="K16:L17"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,9 +32,6 @@
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
   <si>
-    <t>92C/1, LANE 7, EAST AZAD NAGAR, KRISHNA NAGAR, DELHI 110051</t>
-  </si>
-  <si>
     <t>({meta:recipient_type})</t>
   </si>
   <si>
@@ -199,12 +196,16 @@
   </si>
   <si>
     <t>Reverse Charge: No</t>
+  </si>
+  <si>
+    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, 
+DELHI 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,72 +967,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,50 +1071,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1095,55 +1119,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,6 +1154,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1175,7 +1179,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1212,7 +1222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="3" name="image2.jpg" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1249,7 +1265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="4" name="image3.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1540,7 +1562,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:S10"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1589,742 +1611,742 @@
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="63"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="63"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="24"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="63"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="24"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
+      <c r="B6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="64"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="31"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="74"/>
+      <c r="B9" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="80"/>
     </row>
     <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
+      <c r="B10" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="92"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="90"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
     </row>
     <row r="13" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="73"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22" t="s">
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="74"/>
+      <c r="S14" s="80"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="29" t="s">
+      <c r="I15" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="J15" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="K15" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="27" t="s">
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="27" t="s">
+      <c r="Q15" s="65"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="97" t="s">
         <v>24</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="77"/>
       <c r="M16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="N16" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="63"/>
       <c r="P16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="Q16" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="63"/>
+      <c r="S16" s="98"/>
     </row>
     <row r="17" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="73" t="s">
+      <c r="L17" s="41"/>
+      <c r="M17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="5" t="s">
+      <c r="N17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="73" t="s">
+      <c r="O17" s="41"/>
+      <c r="P17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="69"/>
-      <c r="P17" s="5" t="s">
+      <c r="Q17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="73" t="s">
+      <c r="R17" s="41"/>
+      <c r="S17" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="R17" s="69"/>
-      <c r="S17" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="71"/>
+      <c r="B18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="35" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="35" t="s">
+      <c r="O18" s="48"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="35" t="s">
+      <c r="R18" s="48"/>
+      <c r="S18" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="R18" s="32"/>
-      <c r="S18" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="92" t="s">
-        <v>38</v>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="95" t="s">
-        <v>39</v>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="95" t="s">
-        <v>40</v>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="55" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="98" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="99">
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52"/>
+      <c r="B25" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
+      <c r="B26" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="19"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="63"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="63"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="64"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="22"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="30" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="64"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="31"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -2349,39 +2371,14 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="B20:J22"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K26:S29"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K24:S25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J30"/>
-    <mergeCell ref="B27:G30"/>
-    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L16"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="D12:S13"/>
     <mergeCell ref="K8:S8"/>
@@ -2398,14 +2395,39 @@
     <mergeCell ref="B10:S10"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K26:S29"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K24:S25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J30"/>
+    <mergeCell ref="B27:G30"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B20:J22"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -32,19 +32,19 @@
     <t>{meta:invoice_type}</t>
   </si>
   <si>
-    <t>Invoice No: {meta:invoice_id}</t>
+    <t xml:space="preserve"> Invoice No: {meta:invoice_id} </t>
   </si>
   <si>
     <t>Reference No: {meta:reference_invoice_id}</t>
   </si>
   <si>
-    <t>Date: {meta:invoice_date}</t>
+    <t xml:space="preserve"> Date: {meta:invoice_date}</t>
   </si>
   <si>
     <t>Period: {meta:sd} - {meta:ed}</t>
   </si>
   <si>
-    <t>Reverse Charge (Y/N):</t>
+    <t xml:space="preserve"> Reverse Charge (Y/N):</t>
   </si>
   <si>
     <t>N</t>
@@ -304,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="49">
     <border/>
     <border>
       <left style="medium">
@@ -728,13 +728,6 @@
       <bottom/>
     </border>
     <border>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -752,27 +745,12 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom/>
-    </border>
-    <border>
-      <bottom/>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -820,30 +798,25 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,23 +944,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="48" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,7 +1261,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="3"/>
@@ -1303,13 +1275,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="30"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -1321,34 +1293,34 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="21"/>
@@ -1365,68 +1337,68 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="36"/>
+      <c r="S12" s="35"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
     </row>
     <row r="14" ht="10.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="45"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="25"/>
@@ -1437,45 +1409,45 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="26"/>
-      <c r="R15" s="48" t="s">
+      <c r="R15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="49"/>
+      <c r="S15" s="48"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="52" t="s">
+      <c r="J16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="54" t="s">
+      <c r="L16" s="50"/>
+      <c r="M16" s="53" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="54" t="s">
+      <c r="P16" s="53" t="s">
         <v>27</v>
       </c>
       <c r="Q16" s="21"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="55" t="s">
+      <c r="S16" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1486,116 +1458,116 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="59" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="61"/>
-      <c r="P17" s="59" t="s">
+      <c r="O17" s="60"/>
+      <c r="P17" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="62"/>
-    </row>
-    <row r="18" ht="28.5" customHeight="1">
+      <c r="R17" s="60"/>
+      <c r="S17" s="61"/>
+    </row>
+    <row r="18" ht="48.0" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="64" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="64" t="s">
+      <c r="L18" s="42"/>
+      <c r="M18" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="66" t="s">
+      <c r="N18" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="64" t="s">
+      <c r="O18" s="42"/>
+      <c r="P18" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="66" t="s">
+      <c r="Q18" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="67" t="s">
+      <c r="R18" s="42"/>
+      <c r="S18" s="66" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72" t="s">
+      <c r="J19" s="70"/>
+      <c r="K19" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="72" t="s">
+      <c r="L19" s="50"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="72" t="s">
+      <c r="O19" s="50"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="51"/>
-      <c r="S19" s="75" t="s">
+      <c r="R19" s="50"/>
+      <c r="S19" s="74" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="77" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="76" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="21"/>
@@ -1605,16 +1577,16 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="78" t="s">
+      <c r="S20" s="77" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="80" t="s">
+      <c r="K21" s="79" t="s">
         <v>48</v>
       </c>
       <c r="L21" s="25"/>
@@ -1624,14 +1596,14 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="81" t="s">
+      <c r="S21" s="80" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="10"/>
-      <c r="K22" s="80" t="s">
+      <c r="K22" s="79" t="s">
         <v>49</v>
       </c>
       <c r="L22" s="25"/>
@@ -1641,7 +1613,7 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="81" t="s">
+      <c r="S22" s="80" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1656,7 +1628,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="81" t="s">
         <v>50</v>
       </c>
       <c r="L23" s="14"/>
@@ -1665,25 +1637,25 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="83" t="s">
+      <c r="R23" s="55"/>
+      <c r="S23" s="82" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="82" t="s">
+      <c r="K24" s="81" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="14"/>
@@ -1693,13 +1665,13 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-      <c r="S24" s="88">
+      <c r="S24" s="86">
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="87" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="21"/>
@@ -1709,7 +1681,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="10"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="88" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="3"/>
@@ -1723,39 +1695,32 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="61"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="10"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="94"/>
+      <c r="K26" s="10"/>
+      <c r="S26" s="9"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="61"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="10"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="87"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1767,7 +1732,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1814,7 +1779,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="14"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="95" t="s">
+      <c r="K31" s="91" t="s">
         <v>58</v>
       </c>
       <c r="L31" s="14"/>
@@ -2815,72 +2780,71 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="D12:S12"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:S14"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="K27:S30"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="H24:J31"/>
+    <mergeCell ref="K25:S26"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="P16:R16"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L17"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K16:L17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K22:R22"/>
     <mergeCell ref="K20:R20"/>
     <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K27:S30"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="H24:J31"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="D12:S12"/>
-    <mergeCell ref="B11:S11"/>
-    <mergeCell ref="D13:S14"/>
-    <mergeCell ref="K8:S8"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="K25:S26"/>
-    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B21:J23"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B28:G31"/>
   </mergeCells>
-  <printOptions/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87F1E06-3237-4B59-A507-658D906DE410}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
@@ -112,9 +121,6 @@
   </si>
   <si>
     <t>{booking:qty}</t>
-  </si>
-  <si>
-    <t>{booking:rate}</t>
   </si>
   <si>
     <t>{booking:taxable_value}</t>
@@ -195,98 +201,101 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -295,7 +304,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -305,79 +314,119 @@
     </fill>
   </fills>
   <borders count="49">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -387,27 +436,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -417,6 +473,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -431,38 +488,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -472,8 +538,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -483,66 +551,94 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -552,14 +648,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -571,25 +671,32 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -601,14 +708,19 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -617,17 +729,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -642,19 +759,23 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -664,6 +785,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -672,9 +794,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -683,11 +807,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -697,6 +824,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -711,268 +839,287 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="93">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -983,11 +1130,17 @@
     <xdr:ext cx="400050" cy="466725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1011,11 +1164,17 @@
     <xdr:ext cx="885825" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="3" name="image2.jpg" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1039,11 +1198,17 @@
     <xdr:ext cx="1171575" cy="400050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="4" name="image3.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1060,36 +1225,332 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="0.86"/>
-    <col customWidth="1" min="2" max="2" width="2.71"/>
-    <col customWidth="1" min="3" max="3" width="4.29"/>
-    <col customWidth="1" min="4" max="4" width="4.14"/>
-    <col customWidth="1" min="5" max="6" width="3.71"/>
-    <col customWidth="1" min="7" max="7" width="0.71"/>
-    <col customWidth="1" min="8" max="8" width="7.29"/>
-    <col customWidth="1" min="9" max="10" width="4.71"/>
-    <col customWidth="1" min="11" max="11" width="4.29"/>
-    <col customWidth="1" min="12" max="12" width="4.0"/>
-    <col customWidth="1" min="13" max="13" width="3.0"/>
-    <col customWidth="1" min="14" max="14" width="4.29"/>
-    <col customWidth="1" min="15" max="15" width="1.71"/>
-    <col customWidth="1" min="16" max="16" width="3.29"/>
-    <col customWidth="1" min="17" max="17" width="3.14"/>
-    <col customWidth="1" min="18" max="18" width="4.0"/>
-    <col customWidth="1" min="19" max="19" width="7.29"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="3.75" customHeight="1">
+    <row r="1" spans="1:19" ht="3.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1110,688 +1571,771 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" spans="1:19" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="S3" s="42"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="9"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="42"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="9"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="19"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="32"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19">
       <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="23" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="20"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19">
       <c r="A11" s="1"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="40"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="1"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="35"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="1"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
     </row>
-    <row r="14" ht="10.5" customHeight="1">
+    <row r="14" spans="1:19" ht="10.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="59"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19">
       <c r="A15" s="1"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="47" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="47" t="s">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="48"/>
+      <c r="S15" s="68"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19">
       <c r="A16" s="1"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="52" t="s">
+      <c r="K16" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="53" t="s">
+      <c r="L16" s="25"/>
+      <c r="M16" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="53" t="s">
+      <c r="N16" s="22"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="54" t="s">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="1"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="58" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="58" t="s">
+      <c r="O17" s="76"/>
+      <c r="P17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="60"/>
-      <c r="S17" s="61"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="73"/>
     </row>
-    <row r="18" ht="48.0" customHeight="1">
+    <row r="18" spans="1:19" ht="48" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="63" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="L18" s="38"/>
+      <c r="M18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="63" t="s">
+      <c r="N18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="65" t="s">
+      <c r="O18" s="38"/>
+      <c r="P18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="42"/>
-      <c r="P18" s="63" t="s">
+      <c r="Q18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="65" t="s">
+      <c r="R18" s="38"/>
+      <c r="S18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="66" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70" t="s">
+    <row r="20" spans="1:19">
+      <c r="A20" s="1"/>
+      <c r="B20" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71" t="s">
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="71" t="s">
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="50"/>
-      <c r="S19" s="74" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="77" t="s">
-        <v>41</v>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="80" t="s">
-        <v>42</v>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="K22" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="80" t="s">
-        <v>43</v>
-      </c>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="82" t="s">
-        <v>51</v>
-      </c>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="42"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="86">
-        <v>0.0</v>
-      </c>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4"/>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="42"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="S26" s="9"/>
+    <row r="29" spans="1:19" ht="0.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="42"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="89" t="s">
+    <row r="30" spans="1:19" ht="0.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="32"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="32"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" ht="0.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" ht="0.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="19"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="19"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2782,6 +3326,49 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B28:G31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B21:J23"/>
+    <mergeCell ref="K27:S30"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="H24:J31"/>
+    <mergeCell ref="K25:S26"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:S14"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="R15:S15"/>
     <mergeCell ref="K10:S10"/>
     <mergeCell ref="D12:S12"/>
     <mergeCell ref="N19:O19"/>
@@ -2798,52 +3385,9 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:S14"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="K27:S30"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="H24:J31"/>
-    <mergeCell ref="K25:S26"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B21:J23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E0548-7E04-4E86-BE62-F8E2AB028F5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,10 +25,6 @@
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
   <si>
-    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, 
-DELHI 110051</t>
-  </si>
-  <si>
     <t>({meta:recipient_type})</t>
   </si>
   <si>
@@ -190,103 +195,110 @@
   </si>
   <si>
     <t>Authorised signatory</t>
+  </si>
+  <si>
+    <t>A-1/7, F/F A BLOCK, KRISHNA NAGAR, 
+DELHI 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -295,7 +307,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -305,79 +317,119 @@
     </fill>
   </fills>
   <borders count="53">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -387,27 +439,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -417,6 +476,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -431,38 +491,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -472,8 +541,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -483,66 +554,94 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -552,14 +651,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -571,25 +674,32 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -601,14 +711,19 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -617,17 +732,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -642,19 +762,23 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -664,6 +788,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -672,9 +797,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -683,11 +810,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -697,6 +827,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -711,291 +842,325 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1006,11 +1171,17 @@
     <xdr:ext cx="400050" cy="466725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1034,11 +1205,17 @@
     <xdr:ext cx="885825" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg" title="Image"/>
+        <xdr:cNvPr id="3" name="image3.jpg" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1062,11 +1239,17 @@
     <xdr:ext cx="1171575" cy="400050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="4" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1083,37 +1266,332 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="0.86"/>
-    <col customWidth="1" min="2" max="2" width="2.71"/>
-    <col customWidth="1" min="3" max="3" width="4.29"/>
-    <col customWidth="1" min="4" max="4" width="4.14"/>
-    <col customWidth="1" min="5" max="6" width="3.71"/>
-    <col customWidth="1" min="7" max="7" width="0.71"/>
-    <col customWidth="1" min="8" max="8" width="7.29"/>
-    <col customWidth="1" min="9" max="9" width="4.71"/>
-    <col customWidth="1" min="10" max="10" width="5.86"/>
-    <col customWidth="1" min="11" max="11" width="4.29"/>
-    <col customWidth="1" min="12" max="12" width="4.0"/>
-    <col customWidth="1" min="13" max="13" width="3.0"/>
-    <col customWidth="1" min="14" max="14" width="4.29"/>
-    <col customWidth="1" min="15" max="15" width="1.71"/>
-    <col customWidth="1" min="16" max="16" width="3.29"/>
-    <col customWidth="1" min="17" max="17" width="3.14"/>
-    <col customWidth="1" min="18" max="18" width="4.0"/>
-    <col customWidth="1" min="19" max="19" width="7.29"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="0.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="3.75" customHeight="1">
+    <row r="1" spans="1:19" ht="3.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1134,695 +1612,771 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" spans="1:19" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="12" t="s">
+    <row r="5" spans="1:19" ht="14.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="9"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="26"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="9"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="23"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="19"/>
+    <row r="9" spans="1:19" ht="14.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
+    <row r="10" spans="1:19" ht="14.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="90"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
+    <row r="11" spans="1:19" ht="14.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="96"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
+    <row r="12" spans="1:19" ht="14.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="86"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
+    <row r="13" spans="1:19" ht="14.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="93"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="35"/>
+    <row r="14" spans="1:19" ht="10.5" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="94"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
+    <row r="15" spans="1:19" ht="14.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="77"/>
     </row>
-    <row r="14" ht="10.5" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
+    <row r="16" spans="1:19" ht="14.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="62" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="48"/>
+    <row r="17" spans="1:19" ht="14.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="20"/>
+      <c r="P17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="63"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="53" t="s">
+    <row r="18" spans="1:19" ht="48" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="43"/>
+      <c r="M18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="43"/>
+      <c r="S18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="54" t="s">
-        <v>28</v>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="57"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="57"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="60"/>
-      <c r="S17" s="61"/>
+    <row r="20" spans="1:19" ht="14.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" ht="48.0" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="42"/>
-      <c r="P18" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="66" t="s">
-        <v>39</v>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="71" t="s">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="50"/>
-      <c r="S19" s="74" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="77" t="s">
-        <v>41</v>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="80" t="s">
-        <v>42</v>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="K22" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="80" t="s">
-        <v>43</v>
-      </c>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="23"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="82" t="s">
-        <v>51</v>
-      </c>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="34"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="87">
-        <v>0.0</v>
-      </c>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="23"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4"/>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="93"/>
+    <row r="29" spans="1:19" ht="0.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="89" t="s">
+    <row r="30" spans="1:19" ht="0.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="29"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="29"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" ht="0.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" ht="0.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="19"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="19"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2813,54 +3367,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:S30"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="K25:S26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B21:J23"/>
-    <mergeCell ref="H24:J31"/>
-    <mergeCell ref="B28:G31"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K8:S8"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="G4:Q4"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="F3:Q3"/>
@@ -2872,9 +3378,57 @@
     <mergeCell ref="K10:S10"/>
     <mergeCell ref="D13:S14"/>
     <mergeCell ref="B11:S11"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B21:J23"/>
+    <mergeCell ref="H24:J31"/>
+    <mergeCell ref="B28:G31"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:S30"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="K25:S26"/>
+    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.25"/>
+  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E0548-7E04-4E86-BE62-F8E2AB028F5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88970580-D7F0-41AD-AE51-28153801EB9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
-    <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
-  </si>
-  <si>
     <t>({meta:recipient_type})</t>
-  </si>
-  <si>
-    <t>Email: billing@247around.com</t>
-  </si>
-  <si>
-    <t>GSTIN: 07AAFCB1281J1ZQ</t>
   </si>
   <si>
     <t>{meta:invoice_type}</t>
@@ -182,23 +173,32 @@
     <t>GST on Reverse Charge</t>
   </si>
   <si>
-    <t>Bank Name: ICICI Bank</t>
-  </si>
-  <si>
-    <t>For Blackmelon Advance Technology Co. Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Acc No: 102405500277</t>
-  </si>
-  <si>
-    <t>IFSC: ICIC0001024</t>
-  </si>
-  <si>
     <t>Authorised signatory</t>
   </si>
   <si>
-    <t>A-1/7, F/F A BLOCK, KRISHNA NAGAR, 
-DELHI 110051</t>
+    <t>{meta:main_company_name}</t>
+  </si>
+  <si>
+    <t>{meta:main_company_address}, 
+{meta:main_company_state}, {meta:main_company_pincode}</t>
+  </si>
+  <si>
+    <t>Email: {meta:main_company_email}</t>
+  </si>
+  <si>
+    <t>GSTIN: {meta:main_company_gst_number}</t>
+  </si>
+  <si>
+    <t>Bank Name: {meta:main_company_bank_name}</t>
+  </si>
+  <si>
+    <t>Acc No: {meta:main_company_bank_account}</t>
+  </si>
+  <si>
+    <t>IFSC: {meta:main_company_ifsc_code}</t>
+  </si>
+  <si>
+    <t>For {meta:main_company_name}</t>
   </si>
 </sst>
 </file>
@@ -979,22 +979,147 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,144 +1129,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,113 +1157,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="400050" cy="466725"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="885825" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image3.jpg" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1171575" cy="400050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image1.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,7 +1459,7 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1614,767 +1507,767 @@
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="26"/>
+      <c r="F3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="35"/>
     </row>
     <row r="4" spans="1:19" ht="15.6">
       <c r="A4" s="1"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="14.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="26"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
+      <c r="B6" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="54"/>
     </row>
     <row r="8" spans="1:19" ht="14.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
+      <c r="B8" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="14.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
+      <c r="B9" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="14.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="B10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="90"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
     </row>
     <row r="11" spans="1:19" ht="14.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="96"/>
+      <c r="B11" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
     </row>
     <row r="12" spans="1:19" ht="14.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="86"/>
+      <c r="B12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="14.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="93"/>
+      <c r="B13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
     </row>
     <row r="14" spans="1:19" ht="10.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="94"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
     </row>
     <row r="15" spans="1:19" ht="14.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="77"/>
+      <c r="S15" s="63"/>
     </row>
     <row r="16" spans="1:19" ht="14.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="59" t="s">
+      <c r="K16" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="L16" s="65"/>
+      <c r="M16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="N16" s="30"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="Q16" s="30"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="70" t="s">
         <v>24</v>
-      </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="62" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="14.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="N17" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="73"/>
       <c r="P17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="63"/>
+        <v>20</v>
+      </c>
+      <c r="Q17" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="73"/>
+      <c r="S17" s="71"/>
     </row>
     <row r="18" spans="1:19" ht="48" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="6" t="s">
+      <c r="K18" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="L18" s="28"/>
+      <c r="M18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="N18" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="O18" s="28"/>
+      <c r="P18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="6" t="s">
+      <c r="Q18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="55" t="s">
+      <c r="R18" s="28"/>
+      <c r="S18" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="65"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="65"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="56" t="s">
+      <c r="R19" s="65"/>
+      <c r="S19" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="57"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="57"/>
-      <c r="S19" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
+      <c r="B20" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="51"/>
+      <c r="B21" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="54"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="66"/>
       <c r="S23" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
+      <c r="B24" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
+      <c r="B25" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="34"/>
+      <c r="B26" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="91"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="23"/>
+      <c r="B27" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="26"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="35"/>
     </row>
     <row r="29" spans="1:19" ht="0.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="35"/>
     </row>
     <row r="30" spans="1:19" ht="0.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="29"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="54"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="29"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="54"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
@@ -3367,6 +3260,49 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B21:J23"/>
+    <mergeCell ref="H24:J31"/>
+    <mergeCell ref="B28:G31"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:S30"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="K25:S26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="R15:S15"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="F3:Q3"/>
@@ -3383,53 +3319,9 @@
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="B6:S7"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K8:S8"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B21:J23"/>
-    <mergeCell ref="H24:J31"/>
-    <mergeCell ref="B28:G31"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:S30"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="K25:S26"/>
-    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88970580-D7F0-41AD-AE51-28153801EB9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
-    <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, 
-DELHI 110051</t>
-  </si>
-  <si>
     <t>({meta:recipient_type})</t>
-  </si>
-  <si>
-    <t>Email: billing@247around.com</t>
-  </si>
-  <si>
-    <t>GSTIN: 07AAFCB1281J1ZQ</t>
   </si>
   <si>
     <t>{meta:invoice_type}</t>
@@ -177,116 +173,132 @@
     <t>GST on Reverse Charge</t>
   </si>
   <si>
-    <t>Bank Name: ICICI Bank</t>
-  </si>
-  <si>
-    <t>For Blackmelon Advance Technology Co. Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Acc No: 102405500277</t>
-  </si>
-  <si>
-    <t>IFSC: ICIC0001024</t>
-  </si>
-  <si>
     <t>Authorised signatory</t>
+  </si>
+  <si>
+    <t>{meta:main_company_name}</t>
+  </si>
+  <si>
+    <t>{meta:main_company_address}, 
+{meta:main_company_state}, {meta:main_company_pincode}</t>
+  </si>
+  <si>
+    <t>Email: {meta:main_company_email}</t>
+  </si>
+  <si>
+    <t>GSTIN: {meta:main_company_gst_number}</t>
+  </si>
+  <si>
+    <t>Bank Name: {meta:main_company_bank_name}</t>
+  </si>
+  <si>
+    <t>Acc No: {meta:main_company_bank_account}</t>
+  </si>
+  <si>
+    <t>IFSC: {meta:main_company_ifsc_code}</t>
+  </si>
+  <si>
+    <t>For {meta:main_company_name}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -295,7 +307,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -305,79 +317,119 @@
     </fill>
   </fills>
   <borders count="53">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -387,27 +439,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -417,6 +476,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -431,38 +491,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -472,8 +541,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -483,66 +554,94 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -552,14 +651,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -571,25 +674,32 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -601,14 +711,19 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -617,17 +732,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -642,19 +762,23 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -664,6 +788,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -672,9 +797,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -683,11 +810,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -697,6 +827,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -711,409 +842,649 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="400050" cy="466725"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="885825" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1171575" cy="400050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="0.86"/>
-    <col customWidth="1" min="2" max="2" width="2.71"/>
-    <col customWidth="1" min="3" max="3" width="4.29"/>
-    <col customWidth="1" min="4" max="4" width="4.14"/>
-    <col customWidth="1" min="5" max="6" width="3.71"/>
-    <col customWidth="1" min="7" max="7" width="0.71"/>
-    <col customWidth="1" min="8" max="8" width="7.29"/>
-    <col customWidth="1" min="9" max="9" width="4.71"/>
-    <col customWidth="1" min="10" max="10" width="5.86"/>
-    <col customWidth="1" min="11" max="11" width="4.29"/>
-    <col customWidth="1" min="12" max="12" width="4.0"/>
-    <col customWidth="1" min="13" max="13" width="3.0"/>
-    <col customWidth="1" min="14" max="14" width="4.29"/>
-    <col customWidth="1" min="15" max="15" width="1.71"/>
-    <col customWidth="1" min="16" max="16" width="3.29"/>
-    <col customWidth="1" min="17" max="17" width="3.14"/>
-    <col customWidth="1" min="18" max="18" width="4.0"/>
-    <col customWidth="1" min="19" max="19" width="7.29"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="0.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="3.75" customHeight="1">
+    <row r="1" spans="1:19" ht="3.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1134,264 +1505,296 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
+      <c r="S3" s="35"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+    <row r="4" spans="1:19" ht="15.6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="35"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="54"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="20"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="9"/>
+    <row r="9" spans="1:19" ht="14.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="9"/>
+    <row r="10" spans="1:19" ht="14.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
+    <row r="11" spans="1:19" ht="14.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="19"/>
+    <row r="12" spans="1:19" ht="14.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
+    <row r="13" spans="1:19" ht="14.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="35"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
-    </row>
-    <row r="14" ht="10.5" customHeight="1">
+    <row r="14" spans="1:19" ht="10.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -1409,420 +1812,464 @@
       <c r="R14" s="43"/>
       <c r="S14" s="44"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19" ht="14.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="63"/>
+    </row>
+    <row r="16" spans="1:19" ht="14.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="46" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="47" t="s">
+      <c r="I16" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="47" t="s">
+      <c r="J16" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="48"/>
+      <c r="K16" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="70" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="52" t="s">
+    <row r="17" spans="1:19" ht="14.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="53" t="s">
+      <c r="O17" s="73"/>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="73"/>
+      <c r="S17" s="71"/>
+    </row>
+    <row r="18" spans="1:19" ht="48" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="78" t="s">
         <v>26</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="60"/>
-      <c r="S17" s="61"/>
-    </row>
-    <row r="18" ht="48.0" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="62" t="s">
-        <v>30</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="63" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="N18" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="O18" s="28"/>
+      <c r="P18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="Q18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="63" t="s">
+      <c r="R18" s="28"/>
+      <c r="S18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="65" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="42"/>
-      <c r="P18" s="63" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="65" t="s">
+      <c r="L19" s="65"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="66" t="s">
+      <c r="O19" s="65"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="77" t="s">
         <v>39</v>
       </c>
+      <c r="R19" s="65"/>
+      <c r="S19" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71" t="s">
+    <row r="20" spans="1:19" ht="14.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="71" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="71" t="s">
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="50"/>
-      <c r="S19" s="74" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="94" t="s">
         <v>44</v>
       </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="75" t="s">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="76" t="s">
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="77" t="s">
-        <v>41</v>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="79" t="s">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="80" t="s">
-        <v>42</v>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="K22" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="80" t="s">
-        <v>43</v>
-      </c>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="20"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="81" t="s">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="91"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="20"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="35"/>
+    </row>
+    <row r="29" spans="1:19" ht="0.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="35"/>
+    </row>
+    <row r="30" spans="1:19" ht="0.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="54"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="82" t="s">
-        <v>51</v>
-      </c>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="54"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="87">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="93"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" ht="0.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" ht="0.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="19"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="19"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2813,12 +3260,13 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:S30"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="K25:S26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B21:J23"/>
@@ -2826,41 +3274,35 @@
     <mergeCell ref="B28:G31"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:S30"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="K25:S26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="J16:J17"/>
     <mergeCell ref="B16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="S16:S17"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="K16:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="G4:Q4"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="K9:S9"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="K8:S8"/>
     <mergeCell ref="B8:J8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="R5:S5"/>
     <mergeCell ref="I15:Q15"/>
     <mergeCell ref="R15:S15"/>
-    <mergeCell ref="G4:Q4"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="F3:Q3"/>
@@ -2872,10 +3314,14 @@
     <mergeCell ref="K10:S10"/>
     <mergeCell ref="D13:S14"/>
     <mergeCell ref="B11:S11"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.25"/>
+  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">{meta:tcs_rate_text}				</t>
   </si>
   <si>
-    <t>{meta:tds_mount}</t>
+    <t>{meta:tcs_mount}</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -314,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="50">
     <border/>
     <border>
       <left style="medium">
@@ -743,13 +743,6 @@
       <bottom/>
     </border>
     <border>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -767,27 +760,12 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom/>
-    </border>
-    <border>
-      <bottom/>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -951,7 +929,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,14 +950,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="29" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,26 +966,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="49" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,11 +1791,11 @@
       <c r="D25" s="87"/>
       <c r="E25" s="87"/>
       <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="90" t="s">
+      <c r="K25" s="84" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="14"/>
@@ -1834,7 +1805,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="91">
+      <c r="S25" s="89">
         <v>0.0</v>
       </c>
     </row>
@@ -1850,7 +1821,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="10"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="92" t="s">
+      <c r="K26" s="90" t="s">
         <v>57</v>
       </c>
       <c r="L26" s="3"/>
@@ -1864,39 +1835,32 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="60"/>
       <c r="H27" s="10"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="97"/>
+      <c r="K27" s="10"/>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="60"/>
       <c r="H28" s="10"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="89"/>
+      <c r="K28" s="88"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1908,7 +1872,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="89"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1955,7 +1919,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="14"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="98" t="s">
+      <c r="K32" s="93" t="s">
         <v>60</v>
       </c>
       <c r="L32" s="14"/>
@@ -2955,7 +2919,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="60">
     <mergeCell ref="I16:I17"/>
@@ -2972,15 +2935,15 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K28:S31"/>
+    <mergeCell ref="K32:S32"/>
     <mergeCell ref="K20:R20"/>
     <mergeCell ref="K21:R21"/>
     <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K24:R24"/>
     <mergeCell ref="K25:R25"/>
     <mergeCell ref="K26:S27"/>
-    <mergeCell ref="K28:S31"/>
-    <mergeCell ref="K32:S32"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="B2:S2"/>
@@ -3013,11 +2976,11 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H25:J32"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B29:G32"/>
-    <mergeCell ref="B21:J24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.25" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.25"/>

--- a/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/247around_Tax_Invoice_Intra_State.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>{meta:main_company_name}</t>
   </si>
@@ -168,7 +168,13 @@
     <t xml:space="preserve">{meta:tcs_rate_text}				</t>
   </si>
   <si>
-    <t>{meta:tcs_mount}</t>
+    <t>{meta:tcs_amount}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{meta:tds_text}                                </t>
+  </si>
+  <si>
+    <t>{meta:tds_amount}</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -765,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -954,6 +960,12 @@
     </xf>
     <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="29" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1759,44 +1771,28 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="B24" s="10"/>
       <c r="K24" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="55"/>
+      <c r="R24" s="82"/>
       <c r="S24" s="85" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="86" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="84" t="s">
-        <v>55</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -1804,89 +1800,107 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="89">
-        <v>0.0</v>
+      <c r="R25" s="55"/>
+      <c r="S25" s="87" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="90" t="s">
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="4"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="91">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="60"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="10"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="S27" s="9"/>
+      <c r="K27" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="B28" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="60"/>
       <c r="H28" s="10"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="4"/>
+      <c r="K28" s="10"/>
+      <c r="S28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
+      <c r="B29" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="10"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" ht="0.75" customHeight="1">
+      <c r="K29" s="90"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="10"/>
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
@@ -1898,30 +1912,16 @@
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="19"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="K31" s="10"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" ht="0.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="93" t="s">
-        <v>60</v>
-      </c>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
@@ -1933,26 +1933,48 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="19"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
     <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
@@ -2919,8 +2941,9 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="M16:O16"/>
@@ -2935,15 +2958,16 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="K28:S31"/>
-    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="K29:S32"/>
+    <mergeCell ref="K33:S33"/>
     <mergeCell ref="K20:R20"/>
     <mergeCell ref="K21:R21"/>
     <mergeCell ref="K22:R22"/>
     <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="K27:S28"/>
     <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="K26:S27"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="B2:S2"/>
@@ -2971,16 +2995,16 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="B16:G17"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:J32"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B29:G32"/>
+    <mergeCell ref="H26:J33"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B30:G33"/>
+    <mergeCell ref="B21:J25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.25" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.25"/>
